--- a/BERT evaluation.xlsx
+++ b/BERT evaluation.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="33" documentId="8_{8A9250A5-35A7-4040-8BC3-8A7D80C7BB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F4D4C9-03BB-442B-9952-A0BBAC262EC1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C973F11B-C80F-4A83-8418-E1D4E9DDD625}"/>
+    <workbookView xWindow="3480" yWindow="17172" windowWidth="23256" windowHeight="13176" xr2:uid="{C973F11B-C80F-4A83-8418-E1D4E9DDD625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,15 +398,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -417,9 +408,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -450,6 +438,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,17 +462,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +788,7 @@
   <dimension ref="C2:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,87 +804,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="3:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="8"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="21" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="3" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="8"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="1" t="s">
         <v>1</v>
       </c>
@@ -897,297 +897,297 @@
       <c r="T4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="8"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="27">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>0.71</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>0.65</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>0.68</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="9">
         <v>0.27</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <v>0.48</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>0.34</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="6">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="4">
         <v>0</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="4">
         <v>0</v>
       </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="8"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="27">
+      <c r="C6" s="20">
         <v>0</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>0.86</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>0.9</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>0.88</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>0.72</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>1</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <v>0.84</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>0.71</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <v>0.5</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="10">
         <v>0.59</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="6">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <v>0.72</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="4">
         <v>0.84</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="8"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>0.79</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>0.77</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>0.78</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <v>0.36</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <v>0.5</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>0.42</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="9">
         <v>0.49</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="8">
         <v>0.49</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <v>0.46</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="4">
         <v>0.36</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="4">
         <v>0.5</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="4">
         <v>0.42</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="8"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>0.82</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>0.81</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>0.81</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>0.48</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="12">
         <v>0.67</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="12">
         <v>0.49</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="13">
         <v>0.5</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="4">
         <v>0.48</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="4">
         <v>0.67</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="8"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P11" s="8"/>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q12" s="1" t="s">
@@ -1204,30 +1204,30 @@
       </c>
     </row>
     <row r="13" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q13" s="6">
+      <c r="Q13" s="3">
         <v>1</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="4">
         <v>0.27</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="4">
         <v>0.48</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="4">
         <v>0.34</v>
       </c>
     </row>
     <row r="14" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q14" s="6">
+      <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="4">
         <v>0.71</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="4">
         <v>0.5</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="4">
         <v>0.59</v>
       </c>
     </row>
@@ -1235,13 +1235,13 @@
       <c r="Q15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="4">
         <v>0.49</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="4">
         <v>0.49</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="4">
         <v>0.46</v>
       </c>
     </row>
@@ -1249,24 +1249,24 @@
       <c r="Q16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="4">
         <v>0.49</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="4">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q11:T11"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="Q11:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
